--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_se.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_se.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8F1B02-6017-4808-B30A-20BA3F562E72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAB45E5-66B7-0C41-89D9-3C27BCD1E3D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -488,16 +488,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -521,9 +515,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,21 +822,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:D104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -857,7 +850,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2800100</v>
       </c>
@@ -868,7 +861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2800209</v>
       </c>
@@ -879,7 +872,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2800308</v>
       </c>
@@ -890,7 +883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2800407</v>
       </c>
@@ -901,7 +894,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2800506</v>
       </c>
@@ -912,7 +905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2800605</v>
       </c>
@@ -923,7 +916,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2800670</v>
       </c>
@@ -934,7 +927,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2800704</v>
       </c>
@@ -945,7 +938,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2801009</v>
       </c>
@@ -956,7 +949,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2801108</v>
       </c>
@@ -967,7 +960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2801207</v>
       </c>
@@ -978,7 +971,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2801306</v>
       </c>
@@ -989,7 +982,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2801405</v>
       </c>
@@ -1000,7 +993,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2801504</v>
       </c>
@@ -1011,7 +1004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2801603</v>
       </c>
@@ -1022,7 +1015,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2801702</v>
       </c>
@@ -1033,7 +1026,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2801900</v>
       </c>
@@ -1044,7 +1037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2802007</v>
       </c>
@@ -1055,7 +1048,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2802106</v>
       </c>
@@ -1066,7 +1059,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2802205</v>
       </c>
@@ -1077,7 +1070,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2802304</v>
       </c>
@@ -1088,7 +1081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2802403</v>
       </c>
@@ -1099,7 +1092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2802502</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2802601</v>
       </c>
@@ -1121,7 +1114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2802700</v>
       </c>
@@ -1132,7 +1125,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2802809</v>
       </c>
@@ -1143,7 +1136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2802908</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2803005</v>
       </c>
@@ -1165,7 +1158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2803104</v>
       </c>
@@ -1176,7 +1169,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2803203</v>
       </c>
@@ -1187,7 +1180,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2803302</v>
       </c>
@@ -1198,7 +1191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2803401</v>
       </c>
@@ -1209,7 +1202,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2803500</v>
       </c>
@@ -1220,7 +1213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2803609</v>
       </c>
@@ -1231,7 +1224,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2803708</v>
       </c>
@@ -1242,7 +1235,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2803807</v>
       </c>
@@ -1253,7 +1246,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2803906</v>
       </c>
@@ -1264,7 +1257,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2804003</v>
       </c>
@@ -1275,7 +1268,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2804102</v>
       </c>
@@ -1286,7 +1279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2804201</v>
       </c>
@@ -1297,7 +1290,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2804300</v>
       </c>
@@ -1308,7 +1301,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2804409</v>
       </c>
@@ -1319,7 +1312,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2804458</v>
       </c>
@@ -1330,7 +1323,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2804508</v>
       </c>
@@ -1341,7 +1334,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2804607</v>
       </c>
@@ -1352,7 +1345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2804706</v>
       </c>
@@ -1363,7 +1356,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2804805</v>
       </c>
@@ -1374,7 +1367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2804904</v>
       </c>
@@ -1385,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2805000</v>
       </c>
@@ -1396,7 +1389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2805109</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2805208</v>
       </c>
@@ -1418,7 +1411,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2805307</v>
       </c>
@@ -1429,7 +1422,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2805406</v>
       </c>
@@ -1440,7 +1433,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2805505</v>
       </c>
@@ -1451,7 +1444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2805604</v>
       </c>
@@ -1462,7 +1455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2805703</v>
       </c>
@@ -1473,7 +1466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2805802</v>
       </c>
@@ -1484,7 +1477,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2805901</v>
       </c>
@@ -1495,7 +1488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2806008</v>
       </c>
@@ -1506,7 +1499,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2806107</v>
       </c>
@@ -1517,7 +1510,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2806206</v>
       </c>
@@ -1528,7 +1521,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2806305</v>
       </c>
@@ -1539,7 +1532,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2806404</v>
       </c>
@@ -1550,7 +1543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2806503</v>
       </c>
@@ -1561,7 +1554,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2806602</v>
       </c>
@@ -1572,7 +1565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2806701</v>
       </c>
@@ -1583,7 +1576,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2806800</v>
       </c>
@@ -1594,7 +1587,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2806909</v>
       </c>
@@ -1605,7 +1598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2807006</v>
       </c>
@@ -1616,7 +1609,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2807105</v>
       </c>
@@ -1627,7 +1620,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2807204</v>
       </c>
@@ -1638,7 +1631,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2807303</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2807402</v>
       </c>
@@ -1660,7 +1653,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2807501</v>
       </c>
@@ -1671,7 +1664,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2807600</v>
       </c>
@@ -1681,9 +1674,6 @@
       <c r="C76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
